--- a/TestData/OpenCart_AddressUpdate.xlsx
+++ b/TestData/OpenCart_AddressUpdate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="18588" windowHeight="3780"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="18756" windowHeight="4620"/>
   </bookViews>
   <sheets>
     <sheet name="AddressUpdate" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>Company</t>
   </si>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>LastName</t>
+  </si>
+  <si>
+    <t>Your address has been successfully added</t>
+  </si>
+  <si>
+    <t>SuccessMessage</t>
+  </si>
+  <si>
+    <t>DeleteMessage</t>
+  </si>
+  <si>
+    <t>Your address has been successfully deleted</t>
   </si>
 </sst>
 </file>
@@ -164,11 +176,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -471,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,9 +502,11 @@
     <col min="8" max="8" width="12.5546875" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" customWidth="1"/>
     <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="36.5546875" customWidth="1"/>
+    <col min="13" max="13" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -525,8 +540,14 @@
       <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="L1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -560,8 +581,14 @@
       <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -595,8 +622,14 @@
       <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -630,8 +663,14 @@
       <c r="K4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="L4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -664,6 +703,12 @@
       </c>
       <c r="K5" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
